--- a/data/dataset_2.xlsx
+++ b/data/dataset_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carri\Documents\UBA\tareas-nlp\anotaciones_IAA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carri\Documents\UBA\temas-nlp\temas_nlp_tp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC532CD-3302-4D86-AEC8-81D508EA652D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7049F006-35BA-4827-BD3F-8D479AAF425C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset_2_Final" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="240">
   <si>
     <t>nro</t>
   </si>
@@ -802,7 +802,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,6 +843,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -886,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -913,6 +927,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1132,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2254,7 +2274,9 @@
       <c r="J22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K22" s="8"/>
+      <c r="K22" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -4037,7 +4059,9 @@
       <c r="J57" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K57" s="8"/>
+      <c r="K57" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -4091,7 +4115,7 @@
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
+      <c r="N58" s="10"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
